--- a/_Range.xlsx
+++ b/_Range.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vonhorsten\Coden\Python\MTTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coden\Python\text-to-speech\MTTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957EE74B-8D22-4F06-AA34-5AB0B5236491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1E5321-F5A7-4B91-B219-021F81DF9393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31932" yWindow="2040" windowWidth="28020" windowHeight="13548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>Text</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Volume Boost</t>
   </si>
   <si>
-    <t>Filter Boost</t>
-  </si>
-  <si>
     <t>Noise Boost</t>
   </si>
   <si>
@@ -295,6 +292,15 @@
   </si>
   <si>
     <t>Weapon impacted too far from the nearest range target. No score.</t>
+  </si>
+  <si>
+    <t>Nfilter</t>
+  </si>
+  <si>
+    <t>Click In</t>
+  </si>
+  <si>
+    <t>Click Out</t>
   </si>
 </sst>
 </file>
@@ -627,26 +633,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,374 +672,380 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>71</v>
       </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>85</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
